--- a/strings2.xlsx
+++ b/strings2.xlsx
@@ -286,7 +286,7 @@
     <t>{0} сохраненных паролей</t>
   </si>
   <si>
-    <t>ADToolsTelegramBot</t>
+    <t>ADToolsSIP</t>
   </si>
 </sst>
 </file>
@@ -1137,12 +1137,12 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" customWidth="1"/>
   </cols>
